--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA1C757-B12A-264F-9E21-B6FD6C9AFF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F396AC-1BF6-BD4A-B090-0C4D44C48F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="24740" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="19160" windowHeight="21140" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,16 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Past</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s like prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
-In the last week… &amp; In a typical week prior to the COVID-19 Pandemic... (Answer Choices: Once per week, Twice per week, 3-5 times per week, 6-10 times per week, More than 10 times per week, This has not happened, N/A) 
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Once per week
+• Twice per week
+• 3-5 times per week
+• 6-10 times per week
+• More than 10 times per week
+• This has not happened
+• Not applicable </t>
+  </si>
+  <si>
+    <t>• being confident that my family has health insurance 
+• not being so socially isolated 
+• having lower levels of worry and stress 
+• knowing we can pay for food  
+• knowing we can pay my rent/mortgage/housing expenses 
+• knowing my/our job is secure 
+• being able to meet my child’s social and emotional needs 
+• knowing we have access to childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think about the sources of conflict for your family. Which of the following would help decrease conflict the most right now? </t>
+  </si>
+  <si>
+    <t>• Once per week
+• Twice per week
+• 3-5 times per week
+• 6-10 times per week
+• More than 10 times per week
+• This has not happened
+• N/A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
+In a typical week </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the COVID-19 Pandemic.
 • I insulted or swore or shouted or yelled at my partner  
 • I shouted, yelled, or screamed at my child  
 • I criticized or said mean things to my child 
@@ -45,36 +101,134 @@
 • My child had a temper tantrum  
 • My child argued with me  
 • My child argued with my partner </t>
-  </si>
-  <si>
-    <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
-In the last week… &amp; In a typical week prior to the COVID-19 Pandemic... (Answer Choices: Once per week, Twice per week, 3-5 times per week, 6-10 times per week, More than 10 times per week, This has not happened, N/A) 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
+In a typical week</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the COVID-19 Pandemic...
 • I let my child know I really care about them 
 • I was loving and affectionate toward my child 
 • I was supportive and understanding toward my child 
 • I told my child I love them 
-Think about the sources of conflict for your family. Which of the following would help decrease conflict the most right now? 
-• being confident that my family has health insurance 
-• not being so socially isolated 
-• having lower levels of worry and stress 
-• knowing we can pay for food  
-• knowing we can pay my rent/mortgage/housing expenses 
-• knowing my/our job is secure 
-• being able to meet my child’s social and emotional needs 
-• knowing we have access to childcare</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID-EC Team </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team
+- Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
+- Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
+- Child Behavior: Early Childhood Behavior Questionnaire</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified
+Iowa Family Interaction Rating Scales (WH)</t>
+  </si>
+  <si>
+    <t>Past
+9, 11, 16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the last week…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• I insulted or swore or shouted or yelled at my partner  
+• I shouted, yelled, or screamed at my child  
+• I criticized or said mean things to my child 
+• I felt like throwing things or slamming doors 
+• My partner insulted or swore or shouted or yelled at me 
+• My partner shouted, yelled, or screamed at my child 
+• My partner criticized my child  
+• My child had a temper tantrum  
+• My child argued with me  
+• My child argued with my partner </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the last week…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• I let my child know I really care about them 
+• I was loving and affectionate toward my child 
+• I was supportive and understanding toward my child 
+• I told my child I love them </t>
+    </r>
+  </si>
+  <si>
+    <t>Answers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +237,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -110,11 +280,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,46 +615,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="2" width="75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="356">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="372">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F396AC-1BF6-BD4A-B090-0C4D44C48F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D9132-8845-9A48-8AB3-31EE7AE49C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="19160" windowHeight="21140" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="2140" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -149,10 +149,6 @@
 Iowa Family Interaction Rating Scales (WH)</t>
   </si>
   <si>
-    <t>Past
-9, 11, 16</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.  </t>
     </r>
@@ -223,12 +219,31 @@
   <si>
     <t>Answers</t>
   </si>
+  <si>
+    <t>What's the most important thing you have done for your children?</t>
+  </si>
+  <si>
+    <t>Open Response</t>
+  </si>
+  <si>
+    <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
+  </si>
+  <si>
+    <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
+  </si>
+  <si>
+    <t>Current, 29</t>
+  </si>
+  <si>
+    <t>Current
+9, 11, 16, 29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +274,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -653,12 +677,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -667,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="170" x14ac:dyDescent="0.2">
@@ -681,12 +705,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -695,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -709,7 +733,49 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D9132-8845-9A48-8AB3-31EE7AE49C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783CA79-D04A-2545-BCD3-58C55CA3EFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -237,6 +237,12 @@
   <si>
     <t>Current
 9, 11, 16, 29</t>
+  </si>
+  <si>
+    <t>Instructions: The following set of questions will ask about how people in your household are getting along. Some of the questions ask about families’ conflict, which is normal and common. None of the questions in this survey meet the threshold for reporting maltreatment. Our goal is to understand how coronavirus (COVID-19) pandemic is impacting family functioning, across all of the families who take this survey.</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,9 +656,10 @@
     <col min="1" max="2" width="75" style="7" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -665,24 +672,21 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -690,30 +694,30 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
+    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -722,37 +726,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -764,9 +768,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -775,6 +779,20 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783CA79-D04A-2545-BCD3-58C55CA3EFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063746D-5C29-3842-BFB3-AEB3127B0D46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="33060" yWindow="3020" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -139,12 +139,6 @@
     <t xml:space="preserve">Developed by RAPID-EC Team </t>
   </si>
   <si>
-    <t>Developed by RAPID Team
-- Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
-- Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
-- Child Behavior: Early Childhood Behavior Questionnaire</t>
-  </si>
-  <si>
     <t>RAPID Team Modified
 Iowa Family Interaction Rating Scales (WH)</t>
   </si>
@@ -232,24 +226,37 @@
     <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
   </si>
   <si>
-    <t>Current, 29</t>
-  </si>
-  <si>
-    <t>Current
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 9, 11, 16, 29</t>
   </si>
   <si>
-    <t>Instructions: The following set of questions will ask about how people in your household are getting along. Some of the questions ask about families’ conflict, which is normal and common. None of the questions in this survey meet the threshold for reporting maltreatment. Our goal is to understand how coronavirus (COVID-19) pandemic is impacting family functioning, across all of the families who take this survey.</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>9, 11, 16, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
+CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
+IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
+ECBQ: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4334385/ 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8 </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team using: 
+-Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
+-Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
+-Child Behavior: Early Childhood Behavior Questionnaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +293,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,22 +319,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -328,11 +337,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,158 +670,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="1" max="2" width="75" style="4" customWidth="1"/>
+    <col min="3" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
+      <c r="E7" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
+      <c r="E8" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
+      <c r="E9" s="8">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{CB1BC262-A84F-5D4A-9732-6F55CF951F26}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{58D4304B-956A-3F46-B26D-7903B768111C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063746D-5C29-3842-BFB3-AEB3127B0D46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B88815-8F2B-E547-BDAD-FBE583778917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="3020" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="37500" yWindow="-3100" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -229,13 +229,6 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t xml:space="preserve">
-9, 11, 16, 29</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
 CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
 IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
@@ -250,6 +243,16 @@
 -Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
 -Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
 -Child Behavior: Early Childhood Behavior Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9, 11, 16, 29, 55</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55</t>
+  </si>
+  <si>
+    <t>29, 55</t>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
@@ -726,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -746,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -763,10 +766,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -780,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -793,8 +796,8 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8">
-        <v>29</v>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -807,8 +810,8 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8">
-        <v>29</v>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -821,8 +824,8 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
-        <v>29</v>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B88815-8F2B-E547-BDAD-FBE583778917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6F5FB-1D1E-FF44-9D74-69FAD3A84DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37500" yWindow="-3100" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12740" windowHeight="16180" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -68,7 +68,173 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
+      <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
+In a typical week</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the COVID-19 Pandemic...
+• I let my child know I really care about them 
+• I was loving and affectionate toward my child 
+• I was supportive and understanding toward my child 
+• I told my child I love them 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID-EC Team </t>
+  </si>
+  <si>
+    <t>RAPID Team Modified
+Iowa Family Interaction Rating Scales (WH)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the last week…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• I insulted or swore or shouted or yelled at my partner  
+• I shouted, yelled, or screamed at my child  
+• I criticized or said mean things to my child 
+• I felt like throwing things or slamming doors 
+• My partner insulted or swore or shouted or yelled at me 
+• My partner shouted, yelled, or screamed at my child 
+• My partner criticized my child  
+• My child had a temper tantrum  
+• My child argued with me  
+• My child argued with my partner </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the last week…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• I let my child know I really care about them 
+• I was loving and affectionate toward my child 
+• I was supportive and understanding toward my child 
+• I told my child I love them </t>
+    </r>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>What's the most important thing you have done for your children?</t>
+  </si>
+  <si>
+    <t>Open Response</t>
+  </si>
+  <si>
+    <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
+  </si>
+  <si>
+    <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
+CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
+IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
+ECBQ: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4334385/ 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8 </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team using: 
+-Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
+-Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
+-Child Behavior: Early Childhood Behavior Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9, 11, 16, 29, 55, 65</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior to the coronavirus (COVID-19) pandemic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
 In a typical week </t>
     </r>
     <r>
@@ -104,155 +270,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
-In a typical week</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> prior to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the COVID-19 Pandemic...
-• I let my child know I really care about them 
-• I was loving and affectionate toward my child 
-• I was supportive and understanding toward my child 
-• I told my child I love them 
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed by RAPID-EC Team </t>
-  </si>
-  <si>
-    <t>RAPID Team Modified
-Iowa Family Interaction Rating Scales (WH)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-In the last week…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• I insulted or swore or shouted or yelled at my partner  
-• I shouted, yelled, or screamed at my child  
-• I criticized or said mean things to my child 
-• I felt like throwing things or slamming doors 
-• My partner insulted or swore or shouted or yelled at me 
-• My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-In the last week…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• I let my child know I really care about them 
-• I was loving and affectionate toward my child 
-• I was supportive and understanding toward my child 
-• I told my child I love them </t>
-    </r>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>What's the most important thing you have done for your children?</t>
-  </si>
-  <si>
-    <t>Open Response</t>
-  </si>
-  <si>
-    <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
-  </si>
-  <si>
-    <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
-CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
-IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
-ECBQ: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4334385/ 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8 </t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team using: 
--Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
--Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
--Child Behavior: Early Childhood Behavior Questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9, 11, 16, 29, 55</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29, 55</t>
-  </si>
-  <si>
-    <t>29, 55</t>
+    <t>9, 11, 16, 29, 55, 65</t>
+  </si>
+  <si>
+    <t>29, 55, 65</t>
   </si>
 </sst>
 </file>
@@ -675,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -706,50 +727,50 @@
     </row>
     <row r="2" spans="1:5" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>23</v>
@@ -757,16 +778,16 @@
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>23</v>
@@ -780,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>23</v>
@@ -788,13 +809,13 @@
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -802,13 +823,13 @@
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -816,13 +837,13 @@
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6F5FB-1D1E-FF44-9D74-69FAD3A84DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46025C26-D646-6342-9501-2442B21F638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12740" windowHeight="16180" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12740" windowHeight="16020" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -208,10 +208,6 @@
 -Child Behavior: Early Childhood Behavior Questionnaire</t>
   </si>
   <si>
-    <t xml:space="preserve">
-9, 11, 16, 29, 55, 65</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life </t>
     </r>
@@ -273,7 +269,42 @@
     <t>9, 11, 16, 29, 55, 65</t>
   </si>
   <si>
-    <t>29, 55, 65</t>
+    <t xml:space="preserve">
+9, 11, 16, 29, 55, 65, 73</t>
+  </si>
+  <si>
+    <t>Answer the following question in regardes to how you feel about parenting…
+• Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well
+• Since the coronavirus (COVID-19) pandemic began, I often have the feeling I cannot handle things very well
+• Prior to the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
+•  Since the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
+• Do you feel you could benefit from additional resources and supports on parenting and how best to support your child's development?</t>
+  </si>
+  <si>
+    <t>• Strongly agree
+• Somewhat agree
+• Not sure 
+• Somewhat disagree
+• Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, when you felt overwhelmed or stressed as a parent, did you get the support you needed? </t>
+  </si>
+  <si>
+    <t>• 1 - No, I did not feel supported
+• 2
+• 3
+• 4
+• 5 - Yes, I felt very supported</t>
+  </si>
+  <si>
+    <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65, 73</t>
+  </si>
+  <si>
+    <t>29, 55, 65, 73</t>
   </si>
 </sst>
 </file>
@@ -694,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,134 +756,173 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+    <row r="6" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{CB1BC262-A84F-5D4A-9732-6F55CF951F26}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{58D4304B-956A-3F46-B26D-7903B768111C}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{CB1BC262-A84F-5D4A-9732-6F55CF951F26}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{58D4304B-956A-3F46-B26D-7903B768111C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46025C26-D646-6342-9501-2442B21F638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFB94C7-9A21-5044-A4CC-76B3805F1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12740" windowHeight="16020" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="13920" yWindow="500" windowWidth="12740" windowHeight="16020" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -266,13 +266,6 @@
     </r>
   </si>
   <si>
-    <t>9, 11, 16, 29, 55, 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9, 11, 16, 29, 55, 65, 73</t>
-  </si>
-  <si>
     <t>Answer the following question in regardes to how you feel about parenting…
 • Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well
 • Since the coronavirus (COVID-19) pandemic began, I often have the feeling I cannot handle things very well
@@ -301,10 +294,20 @@
     <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
   </si>
   <si>
-    <t>9, 11, 16, 29, 55, 65, 73</t>
-  </si>
-  <si>
-    <t>29, 55, 65, 73</t>
+    <t>73, 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9, 11, 16, 29, 55, 65, 73, 81</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65, 73, 81</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65, 81</t>
+  </si>
+  <si>
+    <t>29, 55, 65, 73, 81</t>
   </si>
 </sst>
 </file>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,41 +761,41 @@
     </row>
     <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="7">
-        <v>73</v>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7">
-        <v>73</v>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7">
-        <v>73</v>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="388" x14ac:dyDescent="0.2">
@@ -809,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="388" x14ac:dyDescent="0.2">
@@ -826,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -860,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -888,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -902,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -916,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFB94C7-9A21-5044-A4CC-76B3805F1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20722DF-620F-A540-BCB8-144752F16C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="500" windowWidth="12740" windowHeight="16020" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="12740" windowHeight="16020" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -294,20 +294,23 @@
     <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
   </si>
   <si>
-    <t>73, 81</t>
+    <t>73, 81, 89</t>
+  </si>
+  <si>
+    <t>73, 81 89</t>
   </si>
   <si>
     <t xml:space="preserve">
-9, 11, 16, 29, 55, 65, 73, 81</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29, 55, 65, 73, 81</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29, 55, 65, 81</t>
-  </si>
-  <si>
-    <t>29, 55, 65, 73, 81</t>
+9, 11, 16, 29, 55, 65, 73, 81, 89</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65, 81, 89</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65, 73, 81, 89</t>
+  </si>
+  <si>
+    <t>29, 55, 65, 73, 81, 89</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,7 +785,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -812,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="388" x14ac:dyDescent="0.2">
@@ -829,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -846,7 +849,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -877,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -891,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -905,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -919,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,56 +20,70 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Once per week
-• Twice per week
-• 3-5 times per week
-• 6-10 times per week
-• More than 10 times per week
-• This has not happened
-• Not applicable </t>
-  </si>
-  <si>
-    <t>• being confident that my family has health insurance 
-• not being so socially isolated 
-• having lower levels of worry and stress 
-• knowing we can pay for food  
-• knowing we can pay my rent/mortgage/housing expenses 
-• knowing my/our job is secure 
-• being able to meet my child’s social and emotional needs 
-• knowing we have access to childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Think about the sources of conflict for your family. Which of the following would help decrease conflict the most right now? </t>
-  </si>
-  <si>
-    <t>• Once per week
-• Twice per week
-• 3-5 times per week
-• 6-10 times per week
-• More than 10 times per week
-• This has not happened
-• N/A</t>
-  </si>
-  <si>
-    <r>
-      <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
-In a typical week</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Answer the following question in regardes to how you feel about parenting…
+• Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well
+• Since the coronavirus (COVID-19) pandemic began, I often have the feeling I cannot handle things very well
+• Prior to the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
+•  Since the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
+• Do you feel you could benefit from additional resources and supports on parenting and how best to support your child's development?</t>
+  </si>
+  <si>
+    <t>• Strongly agree
+• Somewhat agree
+• Not sure 
+• Somewhat disagree
+• Strongly disagree</t>
+  </si>
+  <si>
+    <t>09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, when you felt overwhelmed or stressed as a parent, did you get the support you needed? </t>
+  </si>
+  <si>
+    <t>• 1 - No, I did not feel supported
+• 2
+• 3
+• 4
+• 5 - Yes, I felt very supported</t>
+  </si>
+  <si>
+    <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life </t>
     </r>
     <r>
       <rPr>
@@ -80,7 +94,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> prior to </t>
+      <t>prior to the coronavirus (COVID-19) pandemic</t>
     </r>
     <r>
       <rPr>
@@ -90,20 +104,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">the COVID-19 Pandemic...
-• I let my child know I really care about them 
-• I was loving and affectionate toward my child 
-• I was supportive and understanding toward my child 
-• I told my child I love them 
+      <t xml:space="preserve">, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
+In a typical week </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the COVID-19 Pandemic.
+• I insulted or swore or shouted or yelled at my partner  
+• I shouted, yelled, or screamed at my child  
+• I criticized or said mean things to my child 
+• I felt like throwing things or slamming doors 
+• My partner insulted or swore or shouted or yelled at me 
+• My partner shouted, yelled, or screamed at my child 
+• My partner criticized my child  
+• My child had a temper tantrum  
+• My child argued with me  
+• My child argued with my partner </t>
+    </r>
+  </si>
+  <si>
+    <t>• Once per week
+• Twice per week
+• 3-5 times per week
+• 6-10 times per week
+• More than 10 times per week
+• This has not happened
+• N/A</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team using: 
+-Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
+-Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
+-Child Behavior: Early Childhood Behavior Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
+CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
+IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
+ECBQ: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4334385/ 
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed by RAPID-EC Team </t>
-  </si>
-  <si>
-    <t>RAPID Team Modified
-Iowa Family Interaction Rating Scales (WH)</t>
+  </si>
+  <si>
+    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
   </si>
   <si>
     <r>
@@ -144,6 +203,45 @@
   </si>
   <si>
     <r>
+      <t>When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
+In a typical week</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the COVID-19 Pandemic...
+• I let my child know I really care about them 
+• I was loving and affectionate toward my child 
+• I was supportive and understanding toward my child 
+• I told my child I love them 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified
+Iowa Family Interaction Rating Scales (WH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8 </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. </t>
     </r>
     <r>
@@ -174,7 +272,29 @@
     </r>
   </si>
   <si>
-    <t>Answers</t>
+    <t xml:space="preserve">• Once per week
+• Twice per week
+• 3-5 times per week
+• 6-10 times per week
+• More than 10 times per week
+• This has not happened
+• Not applicable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think about the sources of conflict for your family. Which of the following would help decrease conflict the most right now? </t>
+  </si>
+  <si>
+    <t>• being confident that my family has health insurance 
+• not being so socially isolated 
+• having lower levels of worry and stress 
+• knowing we can pay for food  
+• knowing we can pay my rent/mortgage/housing expenses 
+• knowing my/our job is secure 
+• being able to meet my child’s social and emotional needs 
+• knowing we have access to childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID-EC Team </t>
   </si>
   <si>
     <t>What's the most important thing you have done for your children?</t>
@@ -183,141 +303,20 @@
     <t>Open Response</t>
   </si>
   <si>
+    <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
     <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
   </si>
   <si>
     <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS25: https://pubmed.ncbi.nlm.nih.gov/15844722/ 
-CTS-PC: https://pubmed.ncbi.nlm.nih.gov/9589178/
-IFIRS-WH: https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8
-ECBQ: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4334385/ 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.taylorfrancis.com/chapters/iowa-family-interaction-rating-scales-instrument-summary-janet-melby-rand-conger/e/10.4324/9781410605610-8 </t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team using: 
--Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
--Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
--Child Behavior: Early Childhood Behavior Questionnaire</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior to the coronavirus (COVID-19) pandemic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
-In a typical week </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the COVID-19 Pandemic.
-• I insulted or swore or shouted or yelled at my partner  
-• I shouted, yelled, or screamed at my child  
-• I criticized or said mean things to my child 
-• I felt like throwing things or slamming doors 
-• My partner insulted or swore or shouted or yelled at me 
-• My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-    </r>
-  </si>
-  <si>
-    <t>Answer the following question in regardes to how you feel about parenting…
-• Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well
-• Since the coronavirus (COVID-19) pandemic began, I often have the feeling I cannot handle things very well
-• Prior to the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
-•  Since the coronavirus (COVID-19) pandemic, being a parent is manageable and any problems are easily solved 
-• Do you feel you could benefit from additional resources and supports on parenting and how best to support your child's development?</t>
-  </si>
-  <si>
-    <t>• Strongly agree
-• Somewhat agree
-• Not sure 
-• Somewhat disagree
-• Strongly disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, when you felt overwhelmed or stressed as a parent, did you get the support you needed? </t>
-  </si>
-  <si>
-    <t>• 1 - No, I did not feel supported
-• 2
-• 3
-• 4
-• 5 - Yes, I felt very supported</t>
-  </si>
-  <si>
-    <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
-  </si>
-  <si>
-    <t>73, 81, 89</t>
-  </si>
-  <si>
-    <t>73, 81 89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9, 11, 16, 29, 55, 65, 73, 81, 89</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29, 55, 65, 81, 89</t>
-  </si>
-  <si>
-    <t>9, 11, 16, 29, 55, 65, 73, 81, 89</t>
-  </si>
-  <si>
-    <t>29, 55, 65, 73, 81, 89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,11 +732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="2" width="75" style="4" customWidth="1"/>
     <col min="3" max="4" width="21" style="2" customWidth="1"/>
@@ -745,184 +744,184 @@
     <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="173.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78.75">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="157.5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="388" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="141.75">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="141.75">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="94.5">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="94.5">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="94.5">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mimZuDiJn9ffQPz77Ag3Ruki/N3YA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjaoEu5NcngENXdGO+m6ebyJNj2TQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -305,7 +305,7 @@
     <t>What's the most important thing you have done for your child(ren)?</t>
   </si>
   <si>
-    <t>Open Response</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
@@ -1029,7 +1029,7 @@
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1065,7 +1065,7 @@
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1101,7 +1101,7 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjaoEu5NcngENXdGO+m6ebyJNj2TQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vQMlP8mmDGTHyKqRxD626bgAKK73HT/iTpAGnB5bkSY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -78,7 +78,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <r>
@@ -199,7 +199,7 @@
     </r>
   </si>
   <si>
-    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <r>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Developed by RAPID-EC Team </t>
   </si>
   <si>
-    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
+    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>What's the most important thing you have done for your child(ren)?</t>
@@ -308,7 +308,7 @@
     <t>Open ended response</t>
   </si>
   <si>
-    <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
@@ -327,13 +327,22 @@
 • Strongly disagree</t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Choose the answer that best describes how you feel about parenting in the last month. Being a parent is manageable, and any problems are easily solved </t>
   </si>
   <si>
     <t xml:space="preserve">Choose the answer that best describes how you feel about parenting in the last month. Do you feel you could benefit from additional resources and supports on parenting and how best to support your child(ren)’s development? </t>
+  </si>
+  <si>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose the answer that best describes how you feel about parenting in the last month. I feel I could benefit from additional resources and supports on parenting and how best to support my child’s development. </t>
+  </si>
+  <si>
+    <t>07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>• Being confident that my family has health insurance 
@@ -1000,7 +1009,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -1206,12 +1215,12 @@
         <v>40</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1236,18 +1245,16 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
+      <c r="A17" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1272,11 +1279,19 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -28823,6 +28838,34 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="9"/>
+      <c r="D1002" s="9"/>
+      <c r="E1002" s="15"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D8"/>

--- a/_site/Data/FamConf.xlsx
+++ b/_site/Data/FamConf.xlsx
@@ -78,7 +78,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <r>
@@ -199,7 +199,7 @@
     </r>
   </si>
   <si>
-    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <r>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Developed by RAPID-EC Team </t>
   </si>
   <si>
-    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 07/05/2023-07/12/2023</t>
+    <t>06/01/2020-06/04/2020 06/15/2020-06/18/2020 07/20/2020-07/23/2020 10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>What's the most important thing you have done for your child(ren)?</t>
@@ -308,7 +308,7 @@
     <t>Open ended response</t>
   </si>
   <si>
-    <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>10/20/2020-10/22/2020 04/28/2021-05/01/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
@@ -327,7 +327,7 @@
 • Strongly disagree</t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Choose the answer that best describes how you feel about parenting in the last month. Being a parent is manageable, and any problems are easily solved </t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">Choose the answer that best describes how you feel about parenting in the last month. I feel I could benefit from additional resources and supports on parenting and how best to support my child’s development. </t>
   </si>
   <si>
-    <t>07/05/2023-07/12/2023</t>
+    <t>07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>• Being confident that my family has health insurance 
